--- a/Book.xlsx
+++ b/Book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Motor</t>
   </si>
@@ -31,28 +31,25 @@
     <t>カラー１</t>
   </si>
   <si>
+    <t>カラー４</t>
+  </si>
+  <si>
+    <t>右モーター</t>
+  </si>
+  <si>
+    <t>カラー２</t>
+  </si>
+  <si>
     <t>Touch１</t>
   </si>
   <si>
-    <t>右モーター</t>
-  </si>
-  <si>
-    <t>カラー２</t>
+    <t>カラー３</t>
   </si>
   <si>
     <t>Touch２</t>
   </si>
   <si>
-    <t>カラー３</t>
-  </si>
-  <si>
-    <t>カラー４</t>
-  </si>
-  <si>
     <t>Mux</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -126,7 +123,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -509,9 +506,7 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
